--- a/results/supplementary/Table 4. Base water potential glm results.xlsx
+++ b/results/supplementary/Table 4. Base water potential glm results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/espinosaclara_uniovi_es/Documents/IMIB/Softwares/GitHub/Hidro_thermal_experiments/results/supplementary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/espinosaclara_uniovi_es/Documents/IMIB/Softwares/GitHub/Dianthus_PEG/results/supplementary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD369227-1D2C-4E15-B4D3-ECE40E8C9994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{BD369227-1D2C-4E15-B4D3-ECE40E8C9994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD2EFB39-8A72-467A-AB79-B82BB1532E09}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{34E2A2FD-6777-49BA-BF6B-5642A7802D53}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{34E2A2FD-6777-49BA-BF6B-5642A7802D53}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>Model formula specification</t>
   </si>
@@ -75,13 +75,28 @@
   </si>
   <si>
     <t>After ripened seeds treatment</t>
+  </si>
+  <si>
+    <t>Max bWP = 0 GLMM</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All subpopulations considered </t>
+  </si>
+  <si>
+    <t>Only subpopulations with both storage treatments</t>
+  </si>
+  <si>
+    <t>***</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +108,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -118,12 +139,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,6 +165,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -458,153 +488,318 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F460A0C-DACA-4B1A-B03D-732E32FB27F0}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>-1.3459999999999999E-4</v>
-      </c>
-      <c r="D3">
-        <v>9.2689999999999995E-5</v>
-      </c>
-      <c r="E3">
-        <v>-1.4530000000000001</v>
-      </c>
-      <c r="F3">
-        <v>0.14630000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" t="s">
+      <c r="C4" s="2">
+        <v>-1.284E-4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7.6210000000000004E-5</v>
+      </c>
+      <c r="E4">
+        <v>-1.6850000000000001</v>
+      </c>
+      <c r="F4">
+        <v>9.1899999999999996E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>-0.21249999999999999</v>
-      </c>
-      <c r="D4">
-        <v>0.22009999999999999</v>
-      </c>
-      <c r="E4">
-        <v>-0.96599999999999997</v>
-      </c>
-      <c r="F4">
-        <v>0.3342</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" t="s">
+      <c r="C5" s="2">
+        <v>-0.1263</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.18060000000000001</v>
+      </c>
+      <c r="E5">
+        <v>-0.69899999999999995</v>
+      </c>
+      <c r="F5">
+        <v>0.4844</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>2.7950000000000002E-4</v>
-      </c>
-      <c r="D5">
-        <v>1.142E-4</v>
-      </c>
-      <c r="E5">
-        <v>2.448</v>
-      </c>
-      <c r="F5">
-        <v>1.44E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="2">
+        <v>2.2550000000000001E-4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>9.3700000000000001E-5</v>
+      </c>
+      <c r="E6">
+        <v>2.407</v>
+      </c>
+      <c r="F6">
+        <v>1.61E-2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C7">
-        <v>1.325E-4</v>
-      </c>
-      <c r="D7">
-        <v>9.713E-5</v>
-      </c>
-      <c r="E7">
-        <v>1.3640000000000001</v>
-      </c>
-      <c r="F7">
-        <v>0.18940000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="C8" s="2">
+        <v>8.4029999999999993E-5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6.8629999999999999E-5</v>
+      </c>
+      <c r="E8">
+        <v>1.224</v>
+      </c>
+      <c r="F8">
+        <v>0.2208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C9">
-        <v>-1.049E-4</v>
-      </c>
-      <c r="D9">
-        <v>5.3050000000000002E-5</v>
-      </c>
-      <c r="E9">
-        <v>-1.978</v>
-      </c>
-      <c r="F9">
-        <v>4.7899999999999998E-2</v>
-      </c>
+      <c r="C10" s="2">
+        <v>-1.025E-4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4.7490000000000001E-5</v>
+      </c>
+      <c r="E10">
+        <v>-2.1589999999999998</v>
+      </c>
+      <c r="F10">
+        <v>3.0849999999999999E-2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>-9.789E-5</v>
+      </c>
+      <c r="D14" s="2">
+        <v>8.5470000000000007E-5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>-1.145</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.25209999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2">
+        <v>-5.5649999999999998E-2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.15629999999999999</v>
+      </c>
+      <c r="E15" s="2">
+        <v>-0.35599999999999998</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.7218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.9790000000000001E-4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>8.4259999999999996E-5</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2.3479999999999999</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1.89E-2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>-5.4429999999999999E-5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>6.3689999999999995E-5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>-0.85499999999999998</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.39300000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2">
+        <v>-6.8590000000000006E-5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.27E-5</v>
+      </c>
+      <c r="E20" s="2">
+        <v>-5.399</v>
+      </c>
+      <c r="F20" s="2">
+        <v>6.6899999999999997E-8</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:A5"/>
+  <mergeCells count="3">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
